--- a/fuentes/contenidos/grado11/guion01/SolicitudGraficaMA_11_01_COREC250.xlsx
+++ b/fuentes/contenidos/grado11/guion01/SolicitudGraficaMA_11_01_COREC250.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arranala\Documents\Planeta\ONCE\TEMA01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado11\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21870" windowHeight="11985" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -599,10 +599,10 @@
     <t>Fotografía</t>
   </si>
   <si>
-    <t>imagen que muestra un lugar contaminado</t>
-  </si>
-  <si>
     <t>imagen de una campaña ambiental</t>
+  </si>
+  <si>
+    <t>imagen que muestra el deshielo del planeta</t>
   </si>
 </sst>
 </file>
@@ -2480,7 +2480,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2770,7 +2770,7 @@
         <v>IMG01</v>
       </c>
       <c r="B10" s="62">
-        <v>168167933</v>
+        <v>319799621</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2799,7 +2799,7 @@
         <v>800 x 460 px</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
@@ -2842,7 +2842,7 @@
         <v>800 x 460 px</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
